--- a/File/SVToLop.xlsx
+++ b/File/SVToLop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\app-test-management\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6A03DB9-9E7A-49F1-A3B7-FBDD6B7214BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B895EBB8-876B-4A0E-B228-C517F19BE3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{36E97C05-B60C-4379-90A7-109A7D5194A0}"/>
+    <workbookView xWindow="4344" yWindow="4728" windowWidth="17280" windowHeight="8880" xr2:uid="{36E97C05-B60C-4379-90A7-109A7D5194A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,18 +413,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215174FF-52EC-4EB3-A3B8-FA2DACF432EE}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11:Q12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,11 +432,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3121410498</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3121410488</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3121410458</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3121410459</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3121410460</v>
+      </c>
+      <c r="B6">
         <v>0</v>
       </c>
     </row>
